--- a/Moviesdb.xlsx
+++ b/Moviesdb.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>Uid</t>
   </si>
@@ -92,7 +92,112 @@
     <t>tt5457772</t>
   </si>
   <si>
-    <t>Sarrainodu2017</t>
+    <t>Bhoothnath</t>
+  </si>
+  <si>
+    <t>06Bb4G7xB3k</t>
+  </si>
+  <si>
+    <t>Rascals</t>
+  </si>
+  <si>
+    <t>uA2x_yT61LI</t>
+  </si>
+  <si>
+    <t>Garam Masala</t>
+  </si>
+  <si>
+    <t>G9ZV4NZ5Ulw</t>
+  </si>
+  <si>
+    <t>gxBERAhEU7w</t>
+  </si>
+  <si>
+    <t>Tezz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungama </t>
+  </si>
+  <si>
+    <t>HVyXEbOWrp4</t>
+  </si>
+  <si>
+    <t>Hulchul</t>
+  </si>
+  <si>
+    <t>5QDKX5ExXqM</t>
+  </si>
+  <si>
+    <t>tt0991346</t>
+  </si>
+  <si>
+    <t>Comedy</t>
+  </si>
+  <si>
+    <t>Sarrainodu2017.jpg</t>
+  </si>
+  <si>
+    <t>Bhoothnath2008.jpg</t>
+  </si>
+  <si>
+    <t>tt1830786</t>
+  </si>
+  <si>
+    <t>tt0453671</t>
+  </si>
+  <si>
+    <t>tt1706317</t>
+  </si>
+  <si>
+    <t>Thriller</t>
+  </si>
+  <si>
+    <t>tt0371735</t>
+  </si>
+  <si>
+    <t>tt0437238</t>
+  </si>
+  <si>
+    <t>Rascals2011.jpg</t>
+  </si>
+  <si>
+    <t>Garam Masala2005.jpg</t>
+  </si>
+  <si>
+    <t>Tezz2012.jpg</t>
+  </si>
+  <si>
+    <t>Hungama2003.jpg</t>
+  </si>
+  <si>
+    <t>Hulchul2004.jpg</t>
+  </si>
+  <si>
+    <t>ACTOR</t>
+  </si>
+  <si>
+    <t>Amitabh Bachchan</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>Salman Khan</t>
+  </si>
+  <si>
+    <t>Allu Arjun</t>
+  </si>
+  <si>
+    <t>Ajay Devgan</t>
+  </si>
+  <si>
+    <t>Akshay Kumar</t>
+  </si>
+  <si>
+    <t>Paresh Rawal</t>
+  </si>
+  <si>
+    <t>Akshaye Khanna</t>
   </si>
 </sst>
 </file>
@@ -416,25 +521,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I3" sqref="A3:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="2"/>
+    <col min="3" max="3" width="16.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="10.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="21.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,48 +552,54 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2">
         <v>1080</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2008</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -496,23 +609,26 @@
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1080</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2">
         <v>1997</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1080</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -522,20 +638,197 @@
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1080</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2">
         <v>2017</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
         <v>1080</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2017</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1080</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2011</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1080</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2005</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1080</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2012</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1080</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2003</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1080</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2004</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Moviesdb.xlsx
+++ b/Moviesdb.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="190">
   <si>
     <t>Uid</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Language</t>
   </si>
   <si>
-    <t xml:space="preserve">Genre </t>
-  </si>
-  <si>
     <t>Resolution</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>tt1650433</t>
   </si>
   <si>
-    <t>sura2017.jpg</t>
-  </si>
-  <si>
     <t>QaloT95dYRE</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>Drama</t>
   </si>
   <si>
-    <t>judwaa1997.jpg</t>
-  </si>
-  <si>
     <t>tt0119428</t>
   </si>
   <si>
@@ -134,12 +125,6 @@
     <t>Comedy</t>
   </si>
   <si>
-    <t>Sarrainodu2017.jpg</t>
-  </si>
-  <si>
-    <t>Bhoothnath2008.jpg</t>
-  </si>
-  <si>
     <t>tt1830786</t>
   </si>
   <si>
@@ -158,24 +143,9 @@
     <t>tt0437238</t>
   </si>
   <si>
-    <t>Rascals2011.jpg</t>
-  </si>
-  <si>
-    <t>Garam Masala2005.jpg</t>
-  </si>
-  <si>
-    <t>Tezz2012.jpg</t>
-  </si>
-  <si>
-    <t>Hungama2003.jpg</t>
-  </si>
-  <si>
     <t>Hulchul2004.jpg</t>
   </si>
   <si>
-    <t>ACTOR</t>
-  </si>
-  <si>
     <t>Amitabh Bachchan</t>
   </si>
   <si>
@@ -198,16 +168,450 @@
   </si>
   <si>
     <t>Akshaye Khanna</t>
+  </si>
+  <si>
+    <t>Son of Satyamurthy</t>
+  </si>
+  <si>
+    <t>LU9ALgdM3GI</t>
+  </si>
+  <si>
+    <t>fx6fpe6I6tY</t>
+  </si>
+  <si>
+    <t>Veerta The Power</t>
+  </si>
+  <si>
+    <t>Tmz_UgyWzbc</t>
+  </si>
+  <si>
+    <t>Kaashmora</t>
+  </si>
+  <si>
+    <t>Janta Garage</t>
+  </si>
+  <si>
+    <t>Qlt-VuchLQo</t>
+  </si>
+  <si>
+    <t>Sp1O52NPl0s</t>
+  </si>
+  <si>
+    <t>Main Hoon Lucky The Racer</t>
+  </si>
+  <si>
+    <t>ClymjOJ5-5Y</t>
+  </si>
+  <si>
+    <t>Rowdy Leader</t>
+  </si>
+  <si>
+    <t>Hero No. Zero</t>
+  </si>
+  <si>
+    <t>oYTBTKxoRBg</t>
+  </si>
+  <si>
+    <t>Don No 1</t>
+  </si>
+  <si>
+    <t>m4f5zBDINtU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhairava </t>
+  </si>
+  <si>
+    <t>HgLPwTk3eJo</t>
+  </si>
+  <si>
+    <t>Mard Ki Zaban 2</t>
+  </si>
+  <si>
+    <t>olJ1xn9Sqbg</t>
+  </si>
+  <si>
+    <t>HSFrtgT6i7M</t>
+  </si>
+  <si>
+    <t>Chirutha</t>
+  </si>
+  <si>
+    <t>Ekkadiki</t>
+  </si>
+  <si>
+    <t>JasMSp5yry0</t>
+  </si>
+  <si>
+    <t>WULnQl6-OaU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katamarayudu </t>
+  </si>
+  <si>
+    <t>Their</t>
+  </si>
+  <si>
+    <t>BghvzAA_DHg</t>
+  </si>
+  <si>
+    <t>Son Of Satyamurthy 2</t>
+  </si>
+  <si>
+    <t>k9Kr5N3PdfQ</t>
+  </si>
+  <si>
+    <t>Yevadu 2</t>
+  </si>
+  <si>
+    <t>oThfCFaLK5s</t>
+  </si>
+  <si>
+    <t>Dadagiri</t>
+  </si>
+  <si>
+    <t>yCXO6ZTWKUw</t>
+  </si>
+  <si>
+    <t>f_dnArWb3qU</t>
+  </si>
+  <si>
+    <t>Jo Bole So Nihal</t>
+  </si>
+  <si>
+    <t>buXCt9zGqSs</t>
+  </si>
+  <si>
+    <t>Rowdy Hero 2</t>
+  </si>
+  <si>
+    <t>1P4sHw6fuQQ</t>
+  </si>
+  <si>
+    <t>Puli</t>
+  </si>
+  <si>
+    <t>Y04xHiRzXUY</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>qMegqKR2NSw</t>
+  </si>
+  <si>
+    <t>Jabardast Josh</t>
+  </si>
+  <si>
+    <t>vwCqVQ3GSsM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhada </t>
+  </si>
+  <si>
+    <t>fsC-VdP4NbA</t>
+  </si>
+  <si>
+    <t>The Return Of Rebel 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -WNHEIieqXg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow </t>
+  </si>
+  <si>
+    <t>GqzF2hIXCy0</t>
+  </si>
+  <si>
+    <t>Arya Ek Deewana</t>
+  </si>
+  <si>
+    <t>YOcUDo63ev0</t>
+  </si>
+  <si>
+    <t>Mohabbat Ke Dushman</t>
+  </si>
+  <si>
+    <t>KRqhEiF4v6A</t>
+  </si>
+  <si>
+    <t>Policewala Gunda</t>
+  </si>
+  <si>
+    <t>PmO6cZJ_oAk</t>
+  </si>
+  <si>
+    <t>Dangerous Khiladi 5</t>
+  </si>
+  <si>
+    <t>gvNsRNP_BfE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temper </t>
+  </si>
+  <si>
+    <t>n0kZBeYDHDM</t>
+  </si>
+  <si>
+    <t>Dangerous Khiladi</t>
+  </si>
+  <si>
+    <t>eVqPsc8hQcI</t>
+  </si>
+  <si>
+    <t>Rowdy Hero</t>
+  </si>
+  <si>
+    <t>tt4596814</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BODMwODFjZWItZjgyYy00Zjk2LTk5OGMtZjdkZWFhNmVjNWJmXkEyXkFqcGdeQXVyNDY5MTUyNjU@._V1_SY1000_CR0,0,706,1000_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81Hlb3EjRZL._SX385_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genre1 </t>
+  </si>
+  <si>
+    <t>Genre2</t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>tt1198349</t>
+  </si>
+  <si>
+    <t>tt5980232</t>
+  </si>
+  <si>
+    <t>Genre3</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BZjBiZDc2YWMtYTdhZi00YTJiLWJkOGItZTk2NmEwN2FlY2NlXkEyXkFqcGdeQXVyMjYwMDk5NjE@._V1_.jpg</t>
+  </si>
+  <si>
+    <t>Karthi</t>
+  </si>
+  <si>
+    <t>cast1</t>
+  </si>
+  <si>
+    <t>cast2</t>
+  </si>
+  <si>
+    <t>cast3</t>
+  </si>
+  <si>
+    <t>cast4</t>
+  </si>
+  <si>
+    <t>cast5</t>
+  </si>
+  <si>
+    <t>Nayanthara</t>
+  </si>
+  <si>
+    <t>Sri Divya</t>
+  </si>
+  <si>
+    <t>tt5946852</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BYWI3Y2RhNTQtNGE3Mi00ZDc2LTliMDItNTQyNmJiYTVlMzE2XkEyXkFqcGdeQXVyNjgyMTk2MTU@._V1_.jpg</t>
+  </si>
+  <si>
+    <t>Mohanlal</t>
+  </si>
+  <si>
+    <t>Junior N.T.R.</t>
+  </si>
+  <si>
+    <t> Samantha Ruth Prabhu </t>
+  </si>
+  <si>
+    <t>tt3142764</t>
+  </si>
+  <si>
+    <t>Shruti Haasan</t>
+  </si>
+  <si>
+    <t>Shaam</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMjE0ODQ5NTg4Ml5BMl5BanBnXkFtZTgwMjg5MzQwNDE@._V1_.jpg</t>
+  </si>
+  <si>
+    <t>Prakash Raj</t>
+  </si>
+  <si>
+    <t>Ajum Ali</t>
+  </si>
+  <si>
+    <t>tt2224902</t>
+  </si>
+  <si>
+    <t>Pranitha</t>
+  </si>
+  <si>
+    <t>Santhnam</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMDkyNTEyZjUtYzI2ZC00MmExLTk2NzQtZjE1MGYyNGI3ODM4XkEyXkFqcGdeQXVyMjAzMjcxNTE@._V1_SY1000_CR0,0,694,1000_AL_.jpg</t>
+  </si>
+  <si>
+    <t>tt2359290</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BYzEzZTM1MWEtYzllYS00YzVjLWIwNjEtMzE4ODUxYTYwMWQ2XkEyXkFqcGdeQXVyNjgyNTY1MjI@._V1_SY1000_CR0,0,1416,1000_AL_.jpg</t>
+  </si>
+  <si>
+    <t>Allari Naresh</t>
+  </si>
+  <si>
+    <t>Monal Gajjar</t>
+  </si>
+  <si>
+    <t>Brahmanandam</t>
+  </si>
+  <si>
+    <t>tt1169270</t>
+  </si>
+  <si>
+    <t>Crime</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BNmI5MmE0NzgtOWEzNy00YWI5LWJlMDctMTJhNGFhYWJmZWUyXkEyXkFqcGdeQXVyMzUwMTgxODg@._V1_SY1000_SX625_AL_.jpg</t>
+  </si>
+  <si>
+    <t>Nagarjuna Akkineni</t>
+  </si>
+  <si>
+    <t>Anushka Shetty</t>
+  </si>
+  <si>
+    <t>tt6201292</t>
+  </si>
+  <si>
+    <t>Joseph Vijay</t>
+  </si>
+  <si>
+    <t>Keerthi Suresh</t>
+  </si>
+  <si>
+    <t>Jagapathi Babu</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMzA3MDhkYjYtNjczNy00ZWIwLWFmMzQtOWM5ZmM0OWJiZTUzXkEyXkFqcGdeQXVyNTU5OTM0NTU@._V1_.jpg</t>
+  </si>
+  <si>
+    <t>tt5295664</t>
+  </si>
+  <si>
+    <t> Regina Cassandra</t>
+  </si>
+  <si>
+    <t>Tottempudi Gopichand</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMWYzZTM2OTQtMjI0Ni00Y2NjLWFlNDAtNzQ4NmFiYzExYzU3XkEyXkFqcGdeQXVyNTE0NDY5Njc@._V1_SY1000_CR0,0,705,1000_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMTUxMjc2Mzk5OF5BMl5BanBnXkFtZTgwOTg3MTA2MDE@._V1_.jpg</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Juhi Chawla</t>
+  </si>
+  <si>
+    <t>Rajpal Yadav</t>
+  </si>
+  <si>
+    <t>Shah Rukh Khan</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMjE4NjAyNzYyN15BMl5BanBnXkFtZTcwMzcxNDE0MQ@@._V1_.jpg</t>
+  </si>
+  <si>
+    <t>Karisma Kapoor</t>
+  </si>
+  <si>
+    <t>Kader Khan</t>
+  </si>
+  <si>
+    <t>Shakti kapoor</t>
+  </si>
+  <si>
+    <t>Anupam Kher</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BYWE1MmQwOGUtOGJjMy00NDVjLThkNjAtZDNjZmMwMjdlZWM3XkEyXkFqcGdeQXVyMzA0NTI2OTM@._V1_SY1000_CR0,0,666,1000_AL_.jpg</t>
+  </si>
+  <si>
+    <t>Tamannaah Bhatia</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BZGU5ZTE4NDItYTU3YS00MDVjLWE3NmMtYmUxZDQyMGNhNGQ0XkEyXkFqcGdeQXVyMjkxNzQ1NDI@._V1_.jpg</t>
+  </si>
+  <si>
+    <t>Sunjay Dutt</t>
+  </si>
+  <si>
+    <t>Kangana Ranaut</t>
+  </si>
+  <si>
+    <t>Arjun Rampal</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMTk2ODg4ODcyM15BMl5BanBnXkFtZTgwOTMxNTYzNTE@._V1_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BOTc4MDUxMjMwM15BMl5BanBnXkFtZTgwMjE1MDA2MDE@._V1_.jpg</t>
+  </si>
+  <si>
+    <t>John Abraham</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMTUyNDkyODcyM15BMl5BanBnXkFtZTgwMTE1OTUwNDE@._V1_.jpg</t>
+  </si>
+  <si>
+    <t>Anil Kapoor</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMTA5NTQyMzU1MDBeQTJeQWpwZ15BbWU4MDE5NTY1MTQx._V1_.jpg</t>
+  </si>
+  <si>
+    <t>Aftab Shivdasani</t>
+  </si>
+  <si>
+    <t>Arshad Warsi</t>
+  </si>
+  <si>
+    <t>Kareena Kapoor Khan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,10 +634,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,8 +646,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,27 +934,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="A3:I10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="21.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="22.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,284 +970,1073 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2008</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1997</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2017</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="H5" s="1">
+        <v>1080</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2010</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2011</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2005</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2012</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2003</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2004</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1080</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="H11" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2015</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="2">
         <v>2008</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="K12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2016</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2016</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="H15" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2014</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1080</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1997</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2012</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1080</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2017</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="H17" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2012</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1080</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2017</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2007</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1080</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2011</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="H19" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1080</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2005</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1080</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1080</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2003</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1080</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2004</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>57</v>
+      <c r="F20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2015</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I11" r:id="rId1"/>
+    <hyperlink ref="I12" r:id="rId2"/>
+    <hyperlink ref="I13" r:id="rId3"/>
+    <hyperlink ref="I15" r:id="rId4"/>
+    <hyperlink ref="I16" r:id="rId5"/>
+    <hyperlink ref="I17" r:id="rId6"/>
+    <hyperlink ref="I19" r:id="rId7"/>
+    <hyperlink ref="I20" r:id="rId8"/>
+    <hyperlink ref="I4" r:id="rId9"/>
+    <hyperlink ref="I5" r:id="rId10"/>
+    <hyperlink ref="I6" r:id="rId11"/>
+    <hyperlink ref="I8" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Moviesdb.xlsx
+++ b/Moviesdb.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="213">
   <si>
     <t>Uid</t>
   </si>
@@ -125,6 +125,12 @@
     <t>Comedy</t>
   </si>
   <si>
+    <t>Sarrainodu2017.jpg</t>
+  </si>
+  <si>
+    <t>Bhoothnath2008.jpg</t>
+  </si>
+  <si>
     <t>tt1830786</t>
   </si>
   <si>
@@ -143,6 +149,18 @@
     <t>tt0437238</t>
   </si>
   <si>
+    <t>Rascals2011.jpg</t>
+  </si>
+  <si>
+    <t>Garam Masala2005.jpg</t>
+  </si>
+  <si>
+    <t>Tezz2012.jpg</t>
+  </si>
+  <si>
+    <t>Hungama2003.jpg</t>
+  </si>
+  <si>
     <t>Hulchul2004.jpg</t>
   </si>
   <si>
@@ -365,12 +383,6 @@
     <t>tt4596814</t>
   </si>
   <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BODMwODFjZWItZjgyYy00Zjk2LTk5OGMtZjdkZWFhNmVjNWJmXkEyXkFqcGdeQXVyNDY5MTUyNjU@._V1_SY1000_CR0,0,706,1000_AL_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81Hlb3EjRZL._SX385_.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Genre1 </t>
   </si>
   <si>
@@ -392,9 +404,6 @@
     <t>Fantasy</t>
   </si>
   <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BZjBiZDc2YWMtYTdhZi00YTJiLWJkOGItZTk2NmEwN2FlY2NlXkEyXkFqcGdeQXVyMjYwMDk5NjE@._V1_.jpg</t>
-  </si>
-  <si>
     <t>Karthi</t>
   </si>
   <si>
@@ -422,9 +431,6 @@
     <t>tt5946852</t>
   </si>
   <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BYWI3Y2RhNTQtNGE3Mi00ZDc2LTliMDItNTQyNmJiYTVlMzE2XkEyXkFqcGdeQXVyNjgyMTk2MTU@._V1_.jpg</t>
-  </si>
-  <si>
     <t>Mohanlal</t>
   </si>
   <si>
@@ -443,9 +449,6 @@
     <t>Shaam</t>
   </si>
   <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMjE0ODQ5NTg4Ml5BMl5BanBnXkFtZTgwMjg5MzQwNDE@._V1_.jpg</t>
-  </si>
-  <si>
     <t>Prakash Raj</t>
   </si>
   <si>
@@ -461,15 +464,9 @@
     <t>Santhnam</t>
   </si>
   <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMDkyNTEyZjUtYzI2ZC00MmExLTk2NzQtZjE1MGYyNGI3ODM4XkEyXkFqcGdeQXVyMjAzMjcxNTE@._V1_SY1000_CR0,0,694,1000_AL_.jpg</t>
-  </si>
-  <si>
     <t>tt2359290</t>
   </si>
   <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BYzEzZTM1MWEtYzllYS00YzVjLWIwNjEtMzE4ODUxYTYwMWQ2XkEyXkFqcGdeQXVyNjgyNTY1MjI@._V1_SY1000_CR0,0,1416,1000_AL_.jpg</t>
-  </si>
-  <si>
     <t>Allari Naresh</t>
   </si>
   <si>
@@ -485,9 +482,6 @@
     <t>Crime</t>
   </si>
   <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BNmI5MmE0NzgtOWEzNy00YWI5LWJlMDctMTJhNGFhYWJmZWUyXkEyXkFqcGdeQXVyMzUwMTgxODg@._V1_SY1000_SX625_AL_.jpg</t>
-  </si>
-  <si>
     <t>Nagarjuna Akkineni</t>
   </si>
   <si>
@@ -506,9 +500,6 @@
     <t>Jagapathi Babu</t>
   </si>
   <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMzA3MDhkYjYtNjczNy00ZWIwLWFmMzQtOWM5ZmM0OWJiZTUzXkEyXkFqcGdeQXVyNTU5OTM0NTU@._V1_.jpg</t>
-  </si>
-  <si>
     <t>tt5295664</t>
   </si>
   <si>
@@ -518,12 +509,6 @@
     <t>Tottempudi Gopichand</t>
   </si>
   <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMWYzZTM2OTQtMjI0Ni00Y2NjLWFlNDAtNzQ4NmFiYzExYzU3XkEyXkFqcGdeQXVyNTE0NDY5Njc@._V1_SY1000_CR0,0,705,1000_AL_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMTUxMjc2Mzk5OF5BMl5BanBnXkFtZTgwOTg3MTA2MDE@._V1_.jpg</t>
-  </si>
-  <si>
     <t>Family</t>
   </si>
   <si>
@@ -536,9 +521,6 @@
     <t>Shah Rukh Khan</t>
   </si>
   <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMjE4NjAyNzYyN15BMl5BanBnXkFtZTcwMzcxNDE0MQ@@._V1_.jpg</t>
-  </si>
-  <si>
     <t>Karisma Kapoor</t>
   </si>
   <si>
@@ -551,15 +533,9 @@
     <t>Anupam Kher</t>
   </si>
   <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BYWE1MmQwOGUtOGJjMy00NDVjLThkNjAtZDNjZmMwMjdlZWM3XkEyXkFqcGdeQXVyMzA0NTI2OTM@._V1_SY1000_CR0,0,666,1000_AL_.jpg</t>
-  </si>
-  <si>
     <t>Tamannaah Bhatia</t>
   </si>
   <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BZGU5ZTE4NDItYTU3YS00MDVjLWE3NmMtYmUxZDQyMGNhNGQ0XkEyXkFqcGdeQXVyMjkxNzQ1NDI@._V1_.jpg</t>
-  </si>
-  <si>
     <t>Sunjay Dutt</t>
   </si>
   <si>
@@ -569,24 +545,12 @@
     <t>Arjun Rampal</t>
   </si>
   <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMTk2ODg4ODcyM15BMl5BanBnXkFtZTgwOTMxNTYzNTE@._V1_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BOTc4MDUxMjMwM15BMl5BanBnXkFtZTgwMjE1MDA2MDE@._V1_.jpg</t>
-  </si>
-  <si>
     <t>John Abraham</t>
   </si>
   <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMTUyNDkyODcyM15BMl5BanBnXkFtZTgwMTE1OTUwNDE@._V1_.jpg</t>
-  </si>
-  <si>
     <t>Anil Kapoor</t>
   </si>
   <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMTA5NTQyMzU1MDBeQTJeQWpwZ15BbWU4MDE5NTY1MTQx._V1_.jpg</t>
-  </si>
-  <si>
     <t>Aftab Shivdasani</t>
   </si>
   <si>
@@ -594,6 +558,111 @@
   </si>
   <si>
     <t>Kareena Kapoor Khan</t>
+  </si>
+  <si>
+    <t>Views</t>
+  </si>
+  <si>
+    <t>Judwaa1997.jpg</t>
+  </si>
+  <si>
+    <t>Sura2010.jpg</t>
+  </si>
+  <si>
+    <t>Son of Satyamurthy2015.jpg</t>
+  </si>
+  <si>
+    <t>Veerta The Power2008.jpg</t>
+  </si>
+  <si>
+    <t>Kaashmora2016.jpg</t>
+  </si>
+  <si>
+    <t>Janta Garage2016.jpg</t>
+  </si>
+  <si>
+    <t>Main Hoon Lucky The Racer2014.jpg</t>
+  </si>
+  <si>
+    <t>Rowdy Leader2012.jpg</t>
+  </si>
+  <si>
+    <t>Hero No. Zero2012.jpg</t>
+  </si>
+  <si>
+    <t>Don No 12007.jpg</t>
+  </si>
+  <si>
+    <t>Mard Ki Zaban 22015.jpg</t>
+  </si>
+  <si>
+    <t>Chirutha.jpg</t>
+  </si>
+  <si>
+    <t>Ekkadiki.jpg</t>
+  </si>
+  <si>
+    <t>Their.jpg</t>
+  </si>
+  <si>
+    <t>Katamarayudu.jpg</t>
+  </si>
+  <si>
+    <t>Son Of Satyamurthy 2.jpg</t>
+  </si>
+  <si>
+    <t>Yevadu 2.jpg</t>
+  </si>
+  <si>
+    <t>Dadagiri.jpg</t>
+  </si>
+  <si>
+    <t>Jo Bole So Nihal.jpg</t>
+  </si>
+  <si>
+    <t>Rowdy Hero 2.jpg</t>
+  </si>
+  <si>
+    <t>Puli.jpg</t>
+  </si>
+  <si>
+    <t>Risk.jpg</t>
+  </si>
+  <si>
+    <t>Jabardast Josh.jpg</t>
+  </si>
+  <si>
+    <t>Dhada.jpg</t>
+  </si>
+  <si>
+    <t>The Return Of Rebel 2.jpg</t>
+  </si>
+  <si>
+    <t>Shadow.jpg</t>
+  </si>
+  <si>
+    <t>Arya Ek Deewana.jpg</t>
+  </si>
+  <si>
+    <t>Mohabbat Ke Dushman.jpg</t>
+  </si>
+  <si>
+    <t>Policewala Gunda.jpg</t>
+  </si>
+  <si>
+    <t>Dangerous Khiladi 5.jpg</t>
+  </si>
+  <si>
+    <t>Temper.jpg</t>
+  </si>
+  <si>
+    <t>Dangerous Khiladi.jpg</t>
+  </si>
+  <si>
+    <t>Rowdy Hero.jpg</t>
+  </si>
+  <si>
+    <t>Bhairava2017.jpg</t>
   </si>
 </sst>
 </file>
@@ -638,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -646,13 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -934,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,18 +1008,18 @@
     <col min="1" max="1" width="16.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="9.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="22.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="22.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -967,43 +1030,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1013,41 +1079,44 @@
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
+      <c r="D2" s="2">
+        <v>2008</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1080</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2008</v>
+      <c r="H2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1057,44 +1126,47 @@
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
+      <c r="D3" s="2">
+        <v>1997</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="2">
-        <v>1080</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1997</v>
+      <c r="I3" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1104,33 +1176,36 @@
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
+      <c r="D4" s="2">
+        <v>2017</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="2">
-        <v>1080</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2017</v>
+      <c r="I4" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1140,903 +1215,1006 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
+      <c r="D5" s="1">
+        <v>2010</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="H5" s="1">
-        <v>1080</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2010</v>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1">
+        <v>1080</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
+      <c r="D6" s="2">
+        <v>2011</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1080</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2011</v>
+      <c r="H6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
+      <c r="D7" s="2">
+        <v>2005</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1080</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2005</v>
+      <c r="G7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
+      <c r="D8" s="2">
+        <v>2012</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="2">
-        <v>1080</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2012</v>
+      <c r="I8" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
+      <c r="D9" s="2">
+        <v>2003</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1080</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2003</v>
+      <c r="H9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
+      <c r="D10" s="2">
+        <v>2004</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="2">
-        <v>1080</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="2">
-        <v>2004</v>
+      <c r="I10" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2008</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="2">
-        <v>1080</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J11" s="2">
-        <v>2015</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="G12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <v>1080</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" s="2">
-        <v>2008</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1080</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J13" s="2">
-        <v>2016</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1080</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J14" s="2">
-        <v>2016</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="2">
-        <v>1080</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2014</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1080</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="2">
-        <v>2012</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>66</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2012</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="2">
-        <v>1080</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J17" s="2">
-        <v>2012</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2007</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1080</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J18" s="2">
-        <v>2007</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L18" s="2" t="s">
+      <c r="I19" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="M19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="2">
-        <v>1080</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="G20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="2">
+        <v>480</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="2">
+        <v>720</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="2">
+        <v>720</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="2">
+        <v>480</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="2">
-        <v>1080</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J20" s="2">
-        <v>2015</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="2">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="2">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="2">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="2">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>9</v>
+      <c r="E42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I11" r:id="rId1"/>
-    <hyperlink ref="I12" r:id="rId2"/>
-    <hyperlink ref="I13" r:id="rId3"/>
-    <hyperlink ref="I15" r:id="rId4"/>
-    <hyperlink ref="I16" r:id="rId5"/>
-    <hyperlink ref="I17" r:id="rId6"/>
-    <hyperlink ref="I19" r:id="rId7"/>
-    <hyperlink ref="I20" r:id="rId8"/>
-    <hyperlink ref="I4" r:id="rId9"/>
-    <hyperlink ref="I5" r:id="rId10"/>
-    <hyperlink ref="I6" r:id="rId11"/>
-    <hyperlink ref="I8" r:id="rId12"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Moviesdb.xlsx
+++ b/Moviesdb.xlsx
@@ -1013,7 +1013,7 @@
     <col min="6" max="6" width="9.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="9" max="9" width="13.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="22.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
